--- a/Rotation/ROE选股+定投表现 9.4.xlsx
+++ b/Rotation/ROE选股+定投表现 9.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meiconte\Documents\RH\Rotation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A92E0DB5-C1F2-4BF9-A0E5-202744231BD9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FD5FD4FA-6386-4FD8-BAB7-3CF8060FC658}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{70F2251B-8BD1-4105-8FFA-904BD4B047C4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
   <si>
     <t>资金利用效率</t>
   </si>
@@ -75,9 +75,6 @@
     <t>最大回撤</t>
   </si>
   <si>
-    <t>-169915.10,</t>
-  </si>
-  <si>
     <t>----</t>
   </si>
   <si>
@@ -111,15 +108,9 @@
     <t>600660.SH</t>
   </si>
   <si>
-    <t>600900.SH</t>
-  </si>
-  <si>
     <t>000333.SZ</t>
   </si>
   <si>
-    <t>601225.SH</t>
-  </si>
-  <si>
     <t>600688.SH</t>
   </si>
   <si>
@@ -144,9 +135,6 @@
     <t>600674.SH</t>
   </si>
   <si>
-    <t>600352.SH</t>
-  </si>
-  <si>
     <t>601088.SH</t>
   </si>
   <si>
@@ -186,9 +174,6 @@
     <t>000786.SZ</t>
   </si>
   <si>
-    <t>002468.SZ</t>
-  </si>
-  <si>
     <t>000625.SZ</t>
   </si>
   <si>
@@ -210,9 +195,6 @@
     <t>600340.SH</t>
   </si>
   <si>
-    <t>000559.SZ</t>
-  </si>
-  <si>
     <t>600398.SH</t>
   </si>
   <si>
@@ -246,12 +228,6 @@
     <t>002450.SZ</t>
   </si>
   <si>
-    <t>002153.SZ</t>
-  </si>
-  <si>
-    <t>601939.SH</t>
-  </si>
-  <si>
     <t>000069.SZ</t>
   </si>
   <si>
@@ -264,12 +240,6 @@
     <t>002146.SZ</t>
   </si>
   <si>
-    <t>600547.SH</t>
-  </si>
-  <si>
-    <t>002456.SZ</t>
-  </si>
-  <si>
     <t>600406.SH</t>
   </si>
   <si>
@@ -288,9 +258,6 @@
     <t>600519.SH</t>
   </si>
   <si>
-    <t>002714.SZ</t>
-  </si>
-  <si>
     <t>002008.SZ</t>
   </si>
   <si>
@@ -307,12 +274,54 @@
   </si>
   <si>
     <t>Trailing_Pct</t>
+  </si>
+  <si>
+    <t>-62763.37,</t>
+  </si>
+  <si>
+    <t>601877.SH</t>
+  </si>
+  <si>
+    <t>300136.SZ</t>
+  </si>
+  <si>
+    <t>600570.SH</t>
+  </si>
+  <si>
+    <t>600887.SH</t>
+  </si>
+  <si>
+    <t>600816.SH</t>
+  </si>
+  <si>
+    <t>000568.SZ</t>
+  </si>
+  <si>
+    <t>000876.SZ</t>
+  </si>
+  <si>
+    <t>600886.SH</t>
+  </si>
+  <si>
+    <t>002085.SZ</t>
+  </si>
+  <si>
+    <t>000540.SZ</t>
+  </si>
+  <si>
+    <t>000002.SZ</t>
+  </si>
+  <si>
+    <t>300059.SZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,7 +361,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -366,6 +375,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -389,23 +401,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>433788</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>14653</xdr:rowOff>
+      <xdr:rowOff>17629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51EAEA7B-DE08-4DCB-9263-62B3FFBF596E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E5921C-297D-4E2E-98D7-3F81288876FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -421,8 +433,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8257442" y="0"/>
-          <a:ext cx="4566173" cy="4593980"/>
+          <a:off x="7648575" y="0"/>
+          <a:ext cx="4800600" cy="4542004"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -731,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA997523-DE1B-459B-B5D6-2F82CC68E1C2}">
-  <dimension ref="A1:BL31"/>
+  <dimension ref="A1:BN32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -796,7 +808,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>1245407.6000000001</v>
+        <v>93959.34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -804,7 +816,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>2606449.52</v>
+        <v>320072.71999999997</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -812,7 +824,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>1.0928</v>
+        <v>2.4064999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -836,7 +848,7 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.107</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -847,10 +859,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2">
-        <v>42360</v>
+        <v>39573</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -859,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="2">
-        <v>42398</v>
+        <v>39757</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -867,41 +879,42 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B14">
-        <v>516251.47</v>
-      </c>
-      <c r="C14" s="1">
-        <v>-2.9860000000000002</v>
+        <v>-39820.559999999998</v>
+      </c>
+      <c r="C14" s="1" t="e">
+        <f>-inf%</f>
+        <v>#NAME?</v>
       </c>
       <c r="D14" s="2">
-        <v>39822</v>
+        <v>39496</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -910,7 +923,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="2">
-        <v>40178</v>
+        <v>39504</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -918,16 +931,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B15">
-        <v>50665.08</v>
+        <v>80441.7</v>
       </c>
       <c r="C15" s="1">
-        <v>-3.15E-2</v>
+        <v>-4.7148000000000003</v>
       </c>
       <c r="D15" s="2">
-        <v>40290</v>
+        <v>39923</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -936,7 +949,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="2">
-        <v>40365</v>
+        <v>39932</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -944,16 +957,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B16">
-        <v>-59532.13</v>
+        <v>2857.39</v>
       </c>
       <c r="C16" s="1">
-        <v>-0.14130000000000001</v>
+        <v>-0.63160000000000005</v>
       </c>
       <c r="D16" s="2">
-        <v>40651</v>
+        <v>40196</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -962,24 +975,24 @@
         <v>7</v>
       </c>
       <c r="G16" s="2">
-        <v>40906</v>
+        <v>40361</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B17">
-        <v>63724.22</v>
+        <v>-11152.08</v>
       </c>
       <c r="C17" s="1">
-        <v>-9.9599999999999994E-2</v>
+        <v>-0.5131</v>
       </c>
       <c r="D17" s="2">
-        <v>41036</v>
+        <v>40666</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -988,24 +1001,24 @@
         <v>7</v>
       </c>
       <c r="G17" s="2">
-        <v>41152</v>
+        <v>40906</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B18">
-        <v>37364.39</v>
+        <v>22690.46</v>
       </c>
       <c r="C18" s="1">
-        <v>-0.1024</v>
+        <v>-0.49509999999999998</v>
       </c>
       <c r="D18" s="2">
-        <v>41424</v>
+        <v>41037</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1014,24 +1027,24 @@
         <v>7</v>
       </c>
       <c r="G18" s="2">
-        <v>41485</v>
+        <v>41179</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B19">
-        <v>138953.78</v>
+        <v>33350.97</v>
       </c>
       <c r="C19" s="1">
-        <v>-0.1075</v>
+        <v>-0.29270000000000002</v>
       </c>
       <c r="D19" s="2">
-        <v>41743</v>
+        <v>41415</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -1040,24 +1053,24 @@
         <v>7</v>
       </c>
       <c r="G19" s="2">
-        <v>41831</v>
+        <v>41464</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B20">
-        <v>336834.65</v>
+        <v>57776.52</v>
       </c>
       <c r="C20" s="1">
-        <v>-8.7300000000000003E-2</v>
+        <v>-0.14799999999999999</v>
       </c>
       <c r="D20" s="2">
-        <v>42170</v>
+        <v>41690</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1066,24 +1079,24 @@
         <v>7</v>
       </c>
       <c r="G20" s="2">
-        <v>42277</v>
+        <v>41726</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B21">
-        <v>86860.21</v>
+        <v>11896.14</v>
       </c>
       <c r="C21" s="1">
-        <v>-0.11219999999999999</v>
+        <v>-8.7499999999999994E-2</v>
       </c>
       <c r="D21" s="2">
-        <v>42375</v>
+        <v>42198</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -1092,24 +1105,24 @@
         <v>7</v>
       </c>
       <c r="G21" s="2">
-        <v>42398</v>
+        <v>42220</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B22">
-        <v>267689.69</v>
+        <v>13245.51</v>
       </c>
       <c r="C22" s="1">
-        <v>-3.4200000000000001E-2</v>
+        <v>-4.6300000000000001E-2</v>
       </c>
       <c r="D22" s="2">
-        <v>42851</v>
+        <v>42668</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1118,24 +1131,24 @@
         <v>7</v>
       </c>
       <c r="G22" s="2">
-        <v>42864</v>
+        <v>42733</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B23">
-        <v>-83221.59</v>
+        <v>33366.53</v>
       </c>
       <c r="C23" s="1">
-        <v>-0.1114</v>
+        <v>-0.14560000000000001</v>
       </c>
       <c r="D23" s="2">
-        <v>43294</v>
+        <v>42818</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1144,286 +1157,322 @@
         <v>7</v>
       </c>
       <c r="G23" s="2">
-        <v>43332</v>
+        <v>42842</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2018</v>
+      </c>
+      <c r="B24">
+        <v>6382.5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>-7.7799999999999994E-2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>43102</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="2">
+        <v>43133</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C26" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28" t="s">
+        <v>85</v>
+      </c>
+      <c r="L28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M28" t="s">
+        <v>50</v>
+      </c>
+      <c r="N28" t="s">
+        <v>61</v>
+      </c>
+      <c r="O28" t="s">
+        <v>55</v>
+      </c>
+      <c r="P28" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>64</v>
+      </c>
+      <c r="R28" t="s">
+        <v>57</v>
+      </c>
+      <c r="S28" t="s">
+        <v>30</v>
+      </c>
+      <c r="T28" t="s">
+        <v>34</v>
+      </c>
+      <c r="U28" t="s">
+        <v>41</v>
+      </c>
+      <c r="V28" t="s">
+        <v>48</v>
+      </c>
+      <c r="W28" t="s">
+        <v>78</v>
+      </c>
+      <c r="X28" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF28" t="s">
         <v>26</v>
       </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="AG28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>90</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>94</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM28" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" t="s">
-        <v>35</v>
-      </c>
-      <c r="J27" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" t="s">
-        <v>37</v>
-      </c>
-      <c r="L27" t="s">
-        <v>38</v>
-      </c>
-      <c r="M27" t="s">
-        <v>39</v>
-      </c>
-      <c r="N27" t="s">
-        <v>40</v>
-      </c>
-      <c r="O27" t="s">
-        <v>41</v>
-      </c>
-      <c r="P27" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R27" t="s">
-        <v>44</v>
-      </c>
-      <c r="S27" t="s">
-        <v>45</v>
-      </c>
-      <c r="T27" t="s">
-        <v>46</v>
-      </c>
-      <c r="U27" t="s">
-        <v>47</v>
-      </c>
-      <c r="V27" t="s">
-        <v>48</v>
-      </c>
-      <c r="W27" t="s">
-        <v>49</v>
-      </c>
-      <c r="X27" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>69</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>71</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU27" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV27" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW27" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX27" t="s">
-        <v>76</v>
-      </c>
-      <c r="AY27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ27" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA27" t="s">
-        <v>79</v>
-      </c>
-      <c r="BB27" t="s">
+      <c r="BN28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>80</v>
       </c>
-      <c r="BC27" t="s">
+      <c r="B29" s="5">
+        <v>250</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>81</v>
       </c>
-      <c r="BD27" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE27" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF27" t="s">
-        <v>84</v>
-      </c>
-      <c r="BG27" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH27" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI27" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ27" t="s">
-        <v>88</v>
-      </c>
-      <c r="BK27" t="s">
-        <v>89</v>
-      </c>
-      <c r="BL27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="4">
+      <c r="B30" s="4">
         <v>0.6</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C30" s="4">
         <v>0.5</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D30" s="4">
         <v>0.4</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E30" s="4">
         <v>0.3</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="4">
-        <v>1</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0.4</v>
       </c>
       <c r="F30" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Rotation/ROE选股+定投表现 9.4.xlsx
+++ b/Rotation/ROE选股+定投表现 9.4.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9272" uniqueCount="5983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9199" uniqueCount="5977">
   <si>
     <t>资金利用效率</t>
   </si>
@@ -17918,22 +17918,7 @@
     <t>金莱特</t>
   </si>
   <si>
-    <t>600516.SH</t>
-  </si>
-  <si>
     <t>002024.SZ</t>
-  </si>
-  <si>
-    <t>600663.SH</t>
-  </si>
-  <si>
-    <t>002466.SZ</t>
-  </si>
-  <si>
-    <t>600583.SH</t>
-  </si>
-  <si>
-    <t>002624.SZ</t>
   </si>
   <si>
     <t>行业</t>
@@ -17977,10 +17962,6 @@
   </si>
   <si>
     <t>实际投入金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600585.SH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -21233,8 +21214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -21247,7 +21228,8 @@
     <col min="9" max="9" width="13.125" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="9" style="9"/>
     <col min="13" max="13" width="9.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9" style="9"/>
+    <col min="14" max="14" width="9" style="9"/>
+    <col min="15" max="15" width="10.375" style="9" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.125" style="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="9"/>
     <col min="18" max="18" width="10.125" style="9" bestFit="1" customWidth="1"/>
@@ -21257,36 +21239,36 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>5969</v>
+        <v>5964</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>5970</v>
+        <v>5965</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>5971</v>
+        <v>5966</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>5967</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>5974</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5976</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>5972</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>5979</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5982</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>5977</v>
-      </c>
       <c r="I1" s="9" t="s">
-        <v>5980</v>
+        <v>5975</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>5978</v>
+        <v>5973</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B2" s="9">
         <v>0</v>
@@ -21303,29 +21285,17 @@
         <f>IF($B2=0,0,VLOOKUP(C2,$R$2:$S$39,2,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="9" t="e">
         <f>D2/SUM($D$2:$D$40)*1000</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="G2" s="9">
         <f t="shared" ref="G2:G40" si="0">IF($B2=0,0,ROUND(F2/E2/1000,2)*10000)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="9" t="e">
         <f>SUMPRODUCT(G2:G40*E2:E40)</f>
-        <v>103953</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="9">
-        <v>211.47201100000001</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="9">
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>41</v>
@@ -21336,40 +21306,28 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>5981</v>
-      </c>
-      <c r="C3" s="9" t="str">
+        <v>108</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
         <f>IF(B3=0,0,VLOOKUP(B3,名称对照表!A2:C2910,2,TRUE))</f>
-        <v>海螺水泥</v>
+        <v>0</v>
       </c>
       <c r="D3" s="9">
-        <v>133.99</v>
+        <v>0</v>
       </c>
       <c r="E3" s="9">
-        <v>35.68</v>
-      </c>
-      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9" t="e">
         <f t="shared" ref="F3:F40" si="1">D3/SUM($D$2:$D$40)*10000</f>
-        <v>625.53146335889835</v>
+        <v>#N/A</v>
       </c>
       <c r="G3" s="9">
         <f>IF($B3=0,0,ROUND(F3/E3/1000,2)*10000)</f>
-        <v>200</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="9">
-        <v>287.19008300000002</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" s="9">
-        <v>211.47201100000001</v>
+        <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
         <v>53</v>
@@ -21380,7 +21338,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
@@ -21397,26 +21355,14 @@
         <f>IF($B4=0,0,VLOOKUP(C4,$R$2:$S$39,2,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="9">
-        <v>213.36614900000001</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="9">
-        <v>287.19008300000002</v>
-      </c>
       <c r="R4" s="9" t="s">
         <v>45</v>
       </c>
@@ -21426,14 +21372,14 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="9" t="str">
+        <v>127</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
         <f>IF(B5=0,0,VLOOKUP(B5,名称对照表!A4:C2912,2,TRUE))</f>
-        <v>贵州茅台</v>
+        <v>0</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="2"/>
@@ -21441,28 +21387,16 @@
       </c>
       <c r="E5" s="9">
         <f>IF($B5=0,0,VLOOKUP($B5,$R$2:$S$35,2,FALSE))</f>
-        <v>660.3</v>
-      </c>
-      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="G5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" s="9">
-        <v>110.023202</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="9">
-        <v>213.36614900000001</v>
-      </c>
       <c r="R5" s="9" t="s">
         <v>27</v>
       </c>
@@ -21472,42 +21406,30 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9">
+        <v>107</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="9" t="str">
         <f>IF(B6=0,0,VLOOKUP(B6,名称对照表!A5:C2913,2,TRUE))</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
+        <v>华东医药</v>
+      </c>
+      <c r="D6" s="9" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" ref="E6:E40" si="3">IF($B6=0,0,VLOOKUP($B6,$R$2:$S$35,2,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
+        <v>45.37</v>
+      </c>
+      <c r="F6" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="G6" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" s="9">
-        <v>150.51783699999999</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="P6" s="9">
-        <v>110.023202</v>
+        <v>#N/A</v>
       </c>
       <c r="R6" s="10" t="s">
         <v>84</v>
@@ -21518,42 +21440,30 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9">
+        <v>145</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="9" t="str">
         <f>IF(B7=0,0,VLOOKUP(B7,名称对照表!A6:C2914,2,TRUE))</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
+        <v>万达电影</v>
+      </c>
+      <c r="D7" s="9" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
+        <v>34.56</v>
+      </c>
+      <c r="F7" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="G7" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="9">
-        <v>732.86908100000005</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="P7" s="9">
-        <v>150.51783699999999</v>
+        <v>#N/A</v>
       </c>
       <c r="R7" s="10" t="s">
         <v>79</v>
@@ -21564,7 +21474,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B8" s="9">
         <v>0</v>
@@ -21581,26 +21491,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="9" t="s">
-        <v>5963</v>
-      </c>
-      <c r="M8" s="9">
-        <v>159.49161699999999</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="9">
-        <v>732.86908100000005</v>
-      </c>
       <c r="R8" s="9" t="s">
         <v>37</v>
       </c>
@@ -21610,7 +21508,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B9" s="9">
         <v>0</v>
@@ -21627,28 +21525,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="9" t="s">
-        <v>5964</v>
-      </c>
-      <c r="M9" s="9">
-        <v>102.69587199999999</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>5964</v>
-      </c>
-      <c r="P9" s="9">
-        <v>102.69587199999999</v>
-      </c>
       <c r="R9" s="11" t="s">
-        <v>5964</v>
+        <v>5963</v>
       </c>
       <c r="S9" s="9">
         <v>12.03</v>
@@ -21656,7 +21542,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="9">
         <v>0</v>
@@ -21673,26 +21559,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" s="9">
-        <v>316.38726600000001</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P10" s="9">
-        <v>0</v>
-      </c>
       <c r="R10" s="9" t="s">
         <v>54</v>
       </c>
@@ -21702,41 +21576,29 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="9" t="str">
+        <v>124</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9">
         <f>IF(B11=0,0,VLOOKUP(B11,名称对照表!A10:C2918,2,TRUE))</f>
-        <v>华夏幸福</v>
+        <v>0</v>
       </c>
       <c r="D11" s="9">
         <f>IF(B11=0,0,VLOOKUP(B11,$O$2:$P$39,2,FALSE))</f>
-        <v>553.23943699999995</v>
+        <v>0</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="3"/>
-        <v>23.19</v>
-      </c>
-      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>2582.7947952419063</v>
+        <v>#N/A</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
-        <v>1100</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="9">
-        <v>0</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="9">
         <v>0</v>
       </c>
       <c r="R11" s="9" t="s">
@@ -21748,7 +21610,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B12" s="9">
         <v>0</v>
@@ -21765,26 +21627,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="9">
-        <v>172.08297300000001</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P12" s="9">
-        <v>553.23943699999995</v>
-      </c>
       <c r="R12" s="9" t="s">
         <v>55</v>
       </c>
@@ -21794,7 +21644,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="B13" s="9">
         <v>0</v>
@@ -21811,26 +21661,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="M13" s="9">
-        <v>110.147103</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="P13" s="9">
-        <v>172.08297300000001</v>
-      </c>
       <c r="R13" s="9" t="s">
         <v>42</v>
       </c>
@@ -21840,7 +21678,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B14" s="9">
         <v>0</v>
@@ -21857,28 +21695,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M14" s="9">
-        <v>184.42844299999999</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>5973</v>
-      </c>
-      <c r="P14" s="9">
-        <v>236.842105</v>
-      </c>
       <c r="R14" s="9" t="s">
-        <v>5973</v>
+        <v>5968</v>
       </c>
       <c r="S14" s="10">
         <v>8.64</v>
@@ -21887,42 +21713,30 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C15" s="9" t="str">
         <f>IF(B15=0,0,VLOOKUP(B15,名称对照表!A14:C2922,2,TRUE))</f>
-        <v>宇通客车</v>
-      </c>
-      <c r="D15" s="9">
+        <v>国电南瑞</v>
+      </c>
+      <c r="D15" s="9" t="e">
         <f t="shared" si="2"/>
-        <v>319.17808200000002</v>
+        <v>#N/A</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="3"/>
-        <v>15.3</v>
-      </c>
-      <c r="F15" s="9">
+        <v>14.82</v>
+      </c>
+      <c r="F15" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>1490.0808471195346</v>
-      </c>
-      <c r="G15" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="G15" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="M15" s="9">
-        <v>499.16666700000002</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="P15" s="9">
-        <v>137.284595</v>
+        <v>#N/A</v>
       </c>
       <c r="R15" s="9" t="s">
         <v>57</v>
@@ -21934,7 +21748,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B16" s="9">
         <v>0</v>
@@ -21951,26 +21765,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="9" t="s">
-        <v>5965</v>
-      </c>
-      <c r="M16" s="9">
-        <v>176.22504499999999</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="P16" s="9">
-        <v>0</v>
-      </c>
       <c r="R16" s="9" t="s">
         <v>43</v>
       </c>
@@ -21980,42 +21782,30 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="9">
-        <v>0</v>
-      </c>
-      <c r="C17" s="9">
+        <v>120</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="9" t="str">
         <f>IF(B17=0,0,VLOOKUP(B17,名称对照表!A16:C2924,2,TRUE))</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="9">
+        <v>五 粮 液</v>
+      </c>
+      <c r="D17" s="9" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
+        <v>62.96</v>
+      </c>
+      <c r="F17" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="G17" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M17" s="9">
-        <v>137.284595</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="P17" s="9">
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R17" s="9" t="s">
         <v>76</v>
@@ -22026,7 +21816,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B18" s="9">
         <v>0</v>
@@ -22043,26 +21833,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="G18" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="9">
-        <v>0</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P18" s="9">
-        <v>114.11998699999999</v>
-      </c>
       <c r="R18" s="9" t="s">
         <v>29</v>
       </c>
@@ -22072,7 +21850,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B19" s="9">
         <v>0</v>
@@ -22089,26 +21867,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="G19" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="M19" s="9">
-        <v>0</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="P19" s="9">
-        <v>172.32901200000001</v>
-      </c>
       <c r="R19" s="9" t="s">
         <v>33</v>
       </c>
@@ -22118,7 +21884,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B20" s="9">
         <v>0</v>
@@ -22135,28 +21901,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="G20" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M20" s="9">
-        <v>143.670886</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>5974</v>
-      </c>
-      <c r="P20" s="9">
-        <v>0</v>
-      </c>
       <c r="R20" s="9" t="s">
-        <v>5974</v>
+        <v>5969</v>
       </c>
       <c r="S20" s="9">
         <v>15.69</v>
@@ -22164,7 +21918,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B21" s="9">
         <v>0</v>
@@ -22181,28 +21935,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="G21" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" s="9">
-        <v>172.32901200000001</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>5975</v>
-      </c>
-      <c r="P21" s="9">
-        <v>384.21052600000002</v>
-      </c>
       <c r="R21" s="9" t="s">
-        <v>5975</v>
+        <v>5970</v>
       </c>
       <c r="S21" s="9">
         <v>10.119999999999999</v>
@@ -22210,7 +21952,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B22" s="9">
         <v>0</v>
@@ -22227,26 +21969,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="G22" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="9" t="s">
-        <v>5966</v>
-      </c>
-      <c r="M22" s="9">
-        <v>380.65122100000002</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="P22" s="9">
-        <v>259.55056200000001</v>
-      </c>
       <c r="R22" s="9" t="s">
         <v>70</v>
       </c>
@@ -22256,42 +21986,30 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="9" t="str">
+        <v>126</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9">
         <f>IF(B23=0,0,VLOOKUP(B23,名称对照表!A22:C2930,2,TRUE))</f>
-        <v>金 螳 螂</v>
+        <v>0</v>
       </c>
       <c r="D23" s="9">
         <f t="shared" si="2"/>
-        <v>287.19008300000002</v>
+        <v>0</v>
       </c>
       <c r="E23" s="9">
         <f t="shared" si="3"/>
-        <v>9.3699999999999992</v>
-      </c>
-      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>1340.7450771039141</v>
+        <v>#N/A</v>
       </c>
       <c r="G23" s="9">
         <f t="shared" si="0"/>
-        <v>1400.0000000000002</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="M23" s="9">
-        <v>259.55056200000001</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="P23" s="9">
-        <v>167.74859799999999</v>
+        <v>0</v>
       </c>
       <c r="R23" s="9" t="s">
         <v>38</v>
@@ -22302,42 +22020,30 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="9" t="str">
+        <v>129</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9">
         <f>IF(B24=0,0,VLOOKUP(B24,名称对照表!A23:C2931,2,TRUE))</f>
-        <v>双汇发展</v>
+        <v>0</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" si="2"/>
-        <v>137.284595</v>
+        <v>0</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="3"/>
-        <v>22.72</v>
-      </c>
-      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>640.91225917593613</v>
+        <v>#N/A</v>
       </c>
       <c r="G24" s="9">
         <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M24" s="9">
-        <v>167.74859799999999</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="9">
-        <v>122.222222</v>
+        <v>0</v>
       </c>
       <c r="R24" s="9" t="s">
         <v>26</v>
@@ -22348,181 +22054,133 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B25" s="9">
+        <v>122</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="9" t="str">
+        <f>IF(B25=0,0,VLOOKUP(B25,名称对照表!A24:C2932,2,TRUE))</f>
+        <v>宇通客车</v>
+      </c>
+      <c r="D25" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="3"/>
+        <v>15.3</v>
+      </c>
+      <c r="F25" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G25" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S25" s="9">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="9" t="str">
+        <f>IF(B26=0,0,VLOOKUP(B26,名称对照表!A25:C2933,2,TRUE))</f>
+        <v>海天味业</v>
+      </c>
+      <c r="D26" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" si="3"/>
+        <v>68.06</v>
+      </c>
+      <c r="F26" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G26" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>5971</v>
+      </c>
+      <c r="S26" s="9">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="9">
         <v>0</v>
       </c>
-      <c r="C25" s="9">
-        <f>IF(B25=0,0,VLOOKUP(B25,名称对照表!A24:C2932,2,TRUE))</f>
+      <c r="C27" s="9">
+        <f>IF(B27=0,0,VLOOKUP(B27,名称对照表!A26:C2934,2,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D27" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E27" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F27" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="G27" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="M25" s="9">
-        <v>173.841962</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="P25" s="9">
-        <v>319.17808200000002</v>
-      </c>
-      <c r="R25" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="S25" s="9">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="9">
+      <c r="R27" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="S27" s="9">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="9">
         <v>0</v>
       </c>
-      <c r="C26" s="9">
-        <f>IF(B26=0,0,VLOOKUP(B26,名称对照表!A25:C2933,2,TRUE))</f>
+      <c r="C28" s="9">
+        <f>IF(B28=0,0,VLOOKUP(B28,名称对照表!A27:C2935,2,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D28" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E28" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F28" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="G28" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M26" s="9">
-        <v>319.17808200000002</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>5976</v>
-      </c>
-      <c r="P26" s="9">
-        <v>237.53753800000001</v>
-      </c>
-      <c r="R26" s="9" t="s">
-        <v>5976</v>
-      </c>
-      <c r="S26" s="9">
-        <v>11.24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="9" t="str">
-        <f>IF(B27=0,0,VLOOKUP(B27,名称对照表!A26:C2934,2,TRUE))</f>
-        <v>信立泰</v>
-      </c>
-      <c r="D27" s="9">
-        <f t="shared" si="2"/>
-        <v>172.32901200000001</v>
-      </c>
-      <c r="E27" s="9">
-        <f t="shared" si="3"/>
-        <v>30.46</v>
-      </c>
-      <c r="F27" s="9">
-        <f t="shared" si="1"/>
-        <v>804.51689719794865</v>
-      </c>
-      <c r="G27" s="9">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="M27" s="9">
-        <v>137.552156</v>
-      </c>
-      <c r="O27" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="P27" s="9">
-        <v>100</v>
-      </c>
-      <c r="R27" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="S27" s="9">
-        <v>4.87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="9" t="str">
-        <f>IF(B28=0,0,VLOOKUP(B28,名称对照表!A27:C2935,2,TRUE))</f>
-        <v>三环集团</v>
-      </c>
-      <c r="D28" s="9">
-        <f t="shared" si="2"/>
-        <v>81.132075</v>
-      </c>
-      <c r="E28" s="9">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="F28" s="9">
-        <f t="shared" si="1"/>
-        <v>378.76457646163061</v>
-      </c>
-      <c r="G28" s="9">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="M28" s="9">
-        <v>100</v>
-      </c>
-      <c r="O28" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="P28" s="9">
-        <v>71.985536999999994</v>
-      </c>
       <c r="R28" s="9" t="s">
         <v>86</v>
       </c>
@@ -22532,181 +22190,133 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" s="9">
+        <v>109</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="9" t="str">
+        <f>IF(B29=0,0,VLOOKUP(B29,名称对照表!A28:C2936,2,TRUE))</f>
+        <v>荣盛发展</v>
+      </c>
+      <c r="D29" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F29" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G29" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="S29" s="9">
+        <v>38.94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="9" t="str">
+        <f>IF(B30=0,0,VLOOKUP(B30,名称对照表!A29:C2937,2,TRUE))</f>
+        <v>格力电器</v>
+      </c>
+      <c r="D30" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" si="3"/>
+        <v>38.94</v>
+      </c>
+      <c r="F30" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G30" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S30" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="9">
         <v>0</v>
       </c>
-      <c r="C29" s="9">
-        <f>IF(B29=0,0,VLOOKUP(B29,名称对照表!A28:C2936,2,TRUE))</f>
+      <c r="C31" s="9">
+        <f>IF(B31=0,0,VLOOKUP(B31,名称对照表!A30:C2938,2,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D31" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E31" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F31" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="G31" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L29" s="9" t="s">
-        <v>5967</v>
-      </c>
-      <c r="M29" s="9">
-        <v>118.511797</v>
-      </c>
-      <c r="O29" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="P29" s="9">
-        <v>226.95214100000001</v>
-      </c>
-      <c r="R29" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="S29" s="9">
-        <v>38.94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="9">
+      <c r="R31" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="S31" s="9">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="9">
         <v>0</v>
       </c>
-      <c r="C30" s="9">
-        <f>IF(B30=0,0,VLOOKUP(B30,名称对照表!A29:C2937,2,TRUE))</f>
+      <c r="C32" s="9">
+        <f>IF(B32=0,0,VLOOKUP(B32,名称对照表!A31:C2939,2,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D32" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E32" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F32" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="G32" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L30" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M30" s="9">
-        <v>226.95214100000001</v>
-      </c>
-      <c r="O30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P30" s="9">
-        <v>81.132075</v>
-      </c>
-      <c r="R30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="S30" s="9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f>IF(B31=0,0,VLOOKUP(B31,名称对照表!A30:C2938,2,TRUE))</f>
-        <v>国电南瑞</v>
-      </c>
-      <c r="D31" s="9">
-        <f t="shared" si="2"/>
-        <v>120.699926</v>
-      </c>
-      <c r="E31" s="9">
-        <f t="shared" si="3"/>
-        <v>14.82</v>
-      </c>
-      <c r="F31" s="9">
-        <f t="shared" si="1"/>
-        <v>563.48683736167425</v>
-      </c>
-      <c r="G31" s="9">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M31" s="9">
-        <v>81.132075</v>
-      </c>
-      <c r="O31" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="P31" s="9">
-        <v>120.699926</v>
-      </c>
-      <c r="R31" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="S31" s="9">
-        <v>14.82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f>IF(B32=0,0,VLOOKUP(B32,名称对照表!A31:C2939,2,TRUE))</f>
-        <v>正泰电器</v>
-      </c>
-      <c r="D32" s="9">
-        <f t="shared" si="2"/>
-        <v>110.023202</v>
-      </c>
-      <c r="E32" s="9">
-        <f t="shared" si="3"/>
-        <v>22.63</v>
-      </c>
-      <c r="F32" s="9">
-        <f t="shared" si="1"/>
-        <v>513.6426192289847</v>
-      </c>
-      <c r="G32" s="9">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="L32" s="9" t="s">
-        <v>5968</v>
-      </c>
-      <c r="M32" s="9">
-        <v>177.14116999999999</v>
-      </c>
-      <c r="O32" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="P32" s="9">
-        <v>128.13852800000001</v>
-      </c>
       <c r="R32" s="9" t="s">
         <v>28</v>
       </c>
@@ -22716,42 +22326,30 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" s="9">
-        <v>0</v>
-      </c>
-      <c r="C33" s="9">
+        <v>144</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="9" t="str">
         <f>IF(B33=0,0,VLOOKUP(B33,名称对照表!A32:C2940,2,TRUE))</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="9">
+        <v>大华股份</v>
+      </c>
+      <c r="D33" s="9" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="E33" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="9">
+        <v>14.95</v>
+      </c>
+      <c r="F33" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="G33" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="M33" s="9">
-        <v>120.699926</v>
-      </c>
-      <c r="O33" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P33" s="9">
-        <v>655.91397800000004</v>
+        <v>#N/A</v>
       </c>
       <c r="R33" s="9" t="s">
         <v>31</v>
@@ -22762,7 +22360,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="B34" s="9">
         <v>0</v>
@@ -22779,26 +22377,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="G34" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L34" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M34" s="9">
-        <v>128.13852800000001</v>
-      </c>
-      <c r="O34" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P34" s="9">
-        <v>0</v>
-      </c>
       <c r="R34" s="9" t="s">
         <v>40</v>
       </c>
@@ -22808,7 +22394,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B35" s="9">
         <v>0</v>
@@ -22825,26 +22411,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="G35" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L35" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M35" s="9">
-        <v>655.91397800000004</v>
-      </c>
-      <c r="O35" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P35" s="9">
-        <v>100</v>
-      </c>
       <c r="R35" s="9" t="s">
         <v>39</v>
       </c>
@@ -22854,41 +22428,35 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="9" t="str">
+        <v>132</v>
+      </c>
+      <c r="B36" s="9">
+        <v>0</v>
+      </c>
+      <c r="C36" s="9">
         <f>IF(B36=0,0,VLOOKUP(B36,名称对照表!A35:C2943,2,TRUE))</f>
-        <v>格力电器</v>
+        <v>0</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" si="2"/>
-        <v>226.95214100000001</v>
+        <v>0</v>
       </c>
       <c r="E36" s="9">
         <f t="shared" si="3"/>
-        <v>38.94</v>
-      </c>
-      <c r="F36" s="9">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>1059.524627749571</v>
+        <v>#N/A</v>
       </c>
       <c r="G36" s="9">
         <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M36" s="9">
-        <v>166.25387000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B37" s="9">
         <v>0</v>
@@ -22905,24 +22473,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="G37" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L37" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="M37" s="9">
-        <v>116.719577</v>
-      </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B38" s="9">
         <v>0</v>
@@ -22939,24 +22501,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="G38" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L38" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M38" s="9">
-        <v>0</v>
-      </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B39" s="9">
         <v>0</v>
@@ -22973,47 +22529,41 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="G39" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L39" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M39" s="9">
-        <v>116.16242</v>
-      </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" s="9">
-        <v>0</v>
-      </c>
-      <c r="C40" s="9">
+        <v>125</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="9" t="str">
         <f>IF(B40=0,0,VLOOKUP(B40,名称对照表!A39:C2947,2,TRUE))</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="9">
+        <v>金 螳 螂</v>
+      </c>
+      <c r="D40" s="9" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="E40" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="9">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="F40" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="G40" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
